--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1818620.526381515</v>
+        <v>1826488.893874533</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11038930.97055218</v>
+        <v>11038930.97055219</v>
       </c>
     </row>
     <row r="9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>27.59002526031614</v>
+        <v>15.07344562978044</v>
       </c>
       <c r="G11" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07344562978044</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I11" t="n">
         <v>27.59002526031614</v>
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G12" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H12" t="n">
         <v>27.59002526031614</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,22 +1537,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.753243158510116</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19.54805109077634</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>31.58317294060302</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>27.81845872608313</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>27.81845872608313</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.81845872608313</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>73.88048779848509</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>83.87884627439274</v>
+        <v>73.88048779848515</v>
       </c>
       <c r="I17" t="n">
-        <v>83.87884627439274</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>83.87884627439274</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>75.36443242829301</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>52.52562104321164</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>73.88048779848509</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>29.86928060137327</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>17.39231949001581</v>
       </c>
       <c r="I19" t="n">
-        <v>73.88048779848513</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>56.48816830846933</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6547823005327</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>133.8300976389812</v>
+        <v>33.60427903714393</v>
       </c>
       <c r="D21" t="n">
-        <v>108.5666642153042</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>98.46511581387604</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>193.9221858000907</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>212.816581811585</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>166.8945838541429</v>
       </c>
       <c r="Y21" t="n">
-        <v>111.6030791621473</v>
+        <v>166.8042944279698</v>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>123.348771158105</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>124.0624395827457</v>
+        <v>213.9729103991344</v>
       </c>
       <c r="V22" t="n">
-        <v>213.2592419744934</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,73 +2315,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>140.1075553822762</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>171.5974882210713</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>170.1416682369107</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>212.4672515585019</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>110.9907165918151</v>
-      </c>
-      <c r="S23" t="n">
-        <v>101.2946690516269</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127.6547823005327</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>108.5666642153041</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>106.1908110440493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>98.46511581387603</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>61.27943280330852</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>132.8047697545032</v>
       </c>
       <c r="T24" t="n">
         <v>161.286327345487</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>160.5754553467954</v>
+        <v>193.9221858000907</v>
       </c>
       <c r="W24" t="n">
-        <v>212.816581811585</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>72.81294549980049</v>
       </c>
       <c r="Y24" t="n">
-        <v>166.8042944279698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120.0290485911269</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>109.7370716688778</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>107.5555612972346</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>47.28364190235977</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>49.02375077722061</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>24.11670530519994</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>147.2989170008114</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>64.98646864263058</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>188.168680338242</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>45.59928712436425</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5315264187213</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>94.46810788580649</v>
+        <v>94.46810788580642</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>74.16654459361611</v>
       </c>
       <c r="H27" t="n">
-        <v>49.05847166690201</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.21966028182062</v>
+        <v>26.21966028182055</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.98086158304861</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>136.9877561252272</v>
+        <v>136.9877561252271</v>
       </c>
       <c r="U27" t="n">
-        <v>18.32509209290259</v>
+        <v>162.7644095113803</v>
       </c>
       <c r="V27" t="n">
         <v>169.6236145798308</v>
       </c>
       <c r="W27" t="n">
-        <v>188.5180105913252</v>
+        <v>188.5180105913251</v>
       </c>
       <c r="X27" t="n">
-        <v>142.596012633883</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>92.09721684941644</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>223.3460257669965</v>
       </c>
       <c r="X28" t="n">
-        <v>92.09721684941589</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>218.3015395813158</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>192.4414220194396</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>53.0039873210002</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>63.05055759954185</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7062828820903132</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
         <v>172.0761955788632</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>94.86751711151921</v>
       </c>
       <c r="X31" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>228.0677061829617</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>81.19872045110694</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G33" t="n">
-        <v>23.10068338558324</v>
+        <v>23.100683385583</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142585012</v>
       </c>
       <c r="Y33" t="n">
         <v>91.43986199967672</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>31.17821424530361</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981194</v>
+        <v>45.51364394659001</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>172.0761955788632</v>
@@ -3247,13 +3247,13 @@
         <v>137.8948095462003</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3618590865927075</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X34" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>164.057701006249</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>91.19946604440671</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>54.29773941337088</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>32.16298377312534</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>35.20962132814229</v>
+        <v>16.81298142839261</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
         <v>32.83376815688742</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
         <v>87.92928445832514</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>48.71898779759231</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
         <v>55.7555351219623</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>109.8062254165973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>174.2875541000946</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>45.3567182460188</v>
+      </c>
+      <c r="E38" t="n">
         <v>209.431115937056</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>139.11020867134</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>209.431115937056</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>209.431115937056</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>184.4669269173589</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.29773941337088</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>60.47305475181928</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
         <v>87.92928445832514</v>
@@ -3639,10 +3639,10 @@
         <v>113.7059378444784</v>
       </c>
       <c r="V39" t="n">
-        <v>120.5651429129288</v>
+        <v>26.19884074370248</v>
       </c>
       <c r="W39" t="n">
-        <v>50.24322420916732</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X39" t="n">
         <v>93.53754096698101</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.19903548839244</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>55.01137686213137</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
         <v>139.9021990873316</v>
@@ -3724,10 +3724,10 @@
         <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>113.4742111525407</v>
+        <v>21.32334503000956</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,11 +3740,11 @@
         <v>157.1354426032663</v>
       </c>
       <c r="C41" t="n">
+        <v>138.4048978449569</v>
+      </c>
+      <c r="D41" t="n">
         <v>157.1354426032663</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>138.4048978449569</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>157.1354426032663</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>81.31775136873731</v>
       </c>
       <c r="C42" t="n">
-        <v>51.5455080647147</v>
+        <v>87.4930667071857</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>52.12808488208054</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>86.46773882270773</v>
+        <v>59.24964136046621</v>
       </c>
       <c r="T42" t="n">
-        <v>114.9492964136915</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>140.7259497998448</v>
       </c>
       <c r="V42" t="n">
-        <v>147.5851548682952</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>157.1354426032663</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>120.5575529223474</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>120.4672634961743</v>
       </c>
     </row>
     <row r="43">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.61654790080721</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>63.40004073708232</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>60.20561574180121</v>
       </c>
       <c r="G43" t="n">
-        <v>82.77554707732867</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>77.01174022630954</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>70.23504264612825</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9466109705642936</v>
+        <v>0.9466109705643504</v>
       </c>
       <c r="R43" t="n">
-        <v>92.07795909603939</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.8011657558422</v>
+        <v>47.5075116586391</v>
       </c>
       <c r="T43" t="n">
-        <v>142.7301571471514</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.86323770702275</v>
+        <v>157.1354426032663</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>133.3692210709648</v>
       </c>
     </row>
     <row r="44">
@@ -5027,10 +5027,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="F11" t="n">
-        <v>82.49138865710684</v>
+        <v>95.13439838492067</v>
       </c>
       <c r="G11" t="n">
-        <v>54.62267627294912</v>
+        <v>67.26568600076295</v>
       </c>
       <c r="H11" t="n">
         <v>39.39697361660524</v>
@@ -5042,19 +5042,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L11" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M11" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N11" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O11" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P11" t="n">
         <v>110.3601010412646</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C12" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D12" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E12" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F12" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G12" t="n">
         <v>57.94462678914073</v>
@@ -5127,16 +5127,16 @@
         <v>56.83545203625125</v>
       </c>
       <c r="M12" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N12" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O12" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3601010412646</v>
@@ -5160,10 +5160,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="X12" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F13" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="G13" t="n">
-        <v>2.207202020825291</v>
+        <v>105.5588453255978</v>
       </c>
       <c r="H13" t="n">
-        <v>2.207202020825291</v>
+        <v>77.69013294144005</v>
       </c>
       <c r="I13" t="n">
-        <v>2.207202020825291</v>
+        <v>49.82142055728234</v>
       </c>
       <c r="J13" t="n">
-        <v>2.207202020825291</v>
+        <v>21.95270817312463</v>
       </c>
       <c r="K13" t="n">
         <v>2.207202020825291</v>
@@ -5218,31 +5218,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R13" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.23323850374226</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="C14" t="n">
-        <v>98.23323850374226</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="D14" t="n">
-        <v>98.23323850374226</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="E14" t="n">
-        <v>98.23323850374226</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="F14" t="n">
-        <v>98.23323850374226</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="G14" t="n">
         <v>66.33104361424425</v>
@@ -5279,19 +5279,19 @@
         <v>2.526653835248242</v>
       </c>
       <c r="K14" t="n">
-        <v>2.526653835248242</v>
+        <v>33.79399504644523</v>
       </c>
       <c r="L14" t="n">
-        <v>2.526653835248242</v>
+        <v>63.7980093400181</v>
       </c>
       <c r="M14" t="n">
-        <v>33.79399504644523</v>
+        <v>63.7980093400181</v>
       </c>
       <c r="N14" t="n">
-        <v>65.06133625764222</v>
+        <v>95.06535055121509</v>
       </c>
       <c r="O14" t="n">
-        <v>95.06535055121509</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="P14" t="n">
         <v>126.3326917624121</v>
@@ -5300,28 +5300,28 @@
         <v>126.3326917624121</v>
       </c>
       <c r="R14" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="S14" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="T14" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="U14" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="V14" t="n">
-        <v>126.3326917624121</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="W14" t="n">
-        <v>98.23323850374226</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="X14" t="n">
-        <v>98.23323850374226</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.23323850374226</v>
+        <v>94.43049687291408</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="C15" t="n">
-        <v>2.526653835248242</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="D15" t="n">
-        <v>2.526653835248242</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="E15" t="n">
-        <v>2.526653835248242</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="F15" t="n">
         <v>2.526653835248242</v>
@@ -5358,13 +5358,13 @@
         <v>2.526653835248242</v>
       </c>
       <c r="K15" t="n">
-        <v>33.79399504644523</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="L15" t="n">
-        <v>65.06133625764222</v>
+        <v>32.53066812882111</v>
       </c>
       <c r="M15" t="n">
-        <v>65.06133625764222</v>
+        <v>63.7980093400181</v>
       </c>
       <c r="N15" t="n">
         <v>95.06535055121509</v>
@@ -5373,7 +5373,7 @@
         <v>95.06535055121509</v>
       </c>
       <c r="P15" t="n">
-        <v>95.06535055121509</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Q15" t="n">
         <v>126.3326917624121</v>
@@ -5382,25 +5382,25 @@
         <v>126.3326917624121</v>
       </c>
       <c r="S15" t="n">
-        <v>94.43049687291408</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="T15" t="n">
-        <v>66.33104361424425</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="U15" t="n">
-        <v>34.42884872474625</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="V15" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="W15" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="X15" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="C16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="D16" t="n">
-        <v>2.526653835248242</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="E16" t="n">
-        <v>2.526653835248242</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="F16" t="n">
-        <v>2.526653835248242</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="G16" t="n">
-        <v>2.526653835248242</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="H16" t="n">
-        <v>2.526653835248242</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="I16" t="n">
-        <v>2.526653835248242</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="J16" t="n">
         <v>2.526653835248242</v>
       </c>
       <c r="K16" t="n">
-        <v>8.191391493921831</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="L16" t="n">
-        <v>39.45873270511882</v>
+        <v>32.53066812882111</v>
       </c>
       <c r="M16" t="n">
-        <v>70.72607391631581</v>
+        <v>63.7980093400181</v>
       </c>
       <c r="N16" t="n">
-        <v>101.9934151275128</v>
+        <v>95.06535055121509</v>
       </c>
       <c r="O16" t="n">
         <v>126.3326917624121</v>
@@ -5455,31 +5455,31 @@
         <v>126.3326917624121</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.23323850374226</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="R16" t="n">
-        <v>66.33104361424425</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="S16" t="n">
-        <v>34.42884872474625</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="T16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="U16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="V16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="W16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="X16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.526653835248242</v>
+        <v>126.3326917624121</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="C17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="D17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="E17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="F17" t="n">
-        <v>260.8886297455658</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="G17" t="n">
-        <v>176.1625223976943</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="H17" t="n">
-        <v>91.43641504982288</v>
+        <v>91.43641504982293</v>
       </c>
       <c r="I17" t="n">
-        <v>6.71030770195142</v>
+        <v>6.710307701951423</v>
       </c>
       <c r="J17" t="n">
-        <v>6.71030770195142</v>
+        <v>6.710307701951423</v>
       </c>
       <c r="K17" t="n">
-        <v>6.71030770195142</v>
+        <v>89.75036551360027</v>
       </c>
       <c r="L17" t="n">
-        <v>89.75036551360023</v>
+        <v>172.7904233252491</v>
       </c>
       <c r="M17" t="n">
-        <v>172.790423325249</v>
+        <v>252.4753272859223</v>
       </c>
       <c r="N17" t="n">
-        <v>252.4753272859222</v>
+        <v>252.4753272859223</v>
       </c>
       <c r="O17" t="n">
-        <v>252.4753272859222</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="P17" t="n">
-        <v>335.515385097571</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="Q17" t="n">
-        <v>335.515385097571</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="R17" t="n">
-        <v>335.515385097571</v>
+        <v>250.7892777496996</v>
       </c>
       <c r="S17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="T17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="U17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="V17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="W17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="X17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.1625223976943</v>
+        <v>220.618287243262</v>
       </c>
       <c r="C18" t="n">
-        <v>91.43641504982288</v>
+        <v>220.618287243262</v>
       </c>
       <c r="D18" t="n">
-        <v>91.43641504982288</v>
+        <v>220.618287243262</v>
       </c>
       <c r="E18" t="n">
-        <v>91.43641504982288</v>
+        <v>220.618287243262</v>
       </c>
       <c r="F18" t="n">
-        <v>91.43641504982288</v>
+        <v>220.618287243262</v>
       </c>
       <c r="G18" t="n">
-        <v>6.71030770195142</v>
+        <v>135.8921798953905</v>
       </c>
       <c r="H18" t="n">
-        <v>6.71030770195142</v>
+        <v>59.76649057388237</v>
       </c>
       <c r="I18" t="n">
-        <v>6.71030770195142</v>
+        <v>6.710307701951423</v>
       </c>
       <c r="J18" t="n">
-        <v>6.71030770195142</v>
+        <v>6.710307701951423</v>
       </c>
       <c r="K18" t="n">
-        <v>6.71030770195142</v>
+        <v>89.75036551360027</v>
       </c>
       <c r="L18" t="n">
-        <v>17.00065314929526</v>
+        <v>172.7904233252491</v>
       </c>
       <c r="M18" t="n">
-        <v>17.00065314929526</v>
+        <v>255.830481136898</v>
       </c>
       <c r="N18" t="n">
-        <v>100.0407109609441</v>
+        <v>255.830481136898</v>
       </c>
       <c r="O18" t="n">
-        <v>183.0807687725929</v>
+        <v>266.1208265842419</v>
       </c>
       <c r="P18" t="n">
-        <v>266.1208265842417</v>
+        <v>266.1208265842419</v>
       </c>
       <c r="Q18" t="n">
-        <v>335.515385097571</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="R18" t="n">
-        <v>335.515385097571</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="S18" t="n">
-        <v>260.8886297455658</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="T18" t="n">
-        <v>260.8886297455658</v>
+        <v>250.7892777496996</v>
       </c>
       <c r="U18" t="n">
-        <v>260.8886297455658</v>
+        <v>250.7892777496996</v>
       </c>
       <c r="V18" t="n">
-        <v>176.1625223976943</v>
+        <v>250.7892777496996</v>
       </c>
       <c r="W18" t="n">
-        <v>176.1625223976943</v>
+        <v>220.618287243262</v>
       </c>
       <c r="X18" t="n">
-        <v>176.1625223976943</v>
+        <v>220.618287243262</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.1625223976943</v>
+        <v>220.618287243262</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>250.7892777496995</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="C19" t="n">
-        <v>250.7892777496995</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="D19" t="n">
-        <v>250.7892777496995</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="E19" t="n">
         <v>166.0631704018281</v>
       </c>
       <c r="F19" t="n">
-        <v>81.33706305395661</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="G19" t="n">
-        <v>81.33706305395661</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="H19" t="n">
-        <v>81.33706305395661</v>
+        <v>148.4951709169637</v>
       </c>
       <c r="I19" t="n">
-        <v>6.71030770195142</v>
+        <v>63.76906356909217</v>
       </c>
       <c r="J19" t="n">
-        <v>6.71030770195142</v>
+        <v>6.710307701951423</v>
       </c>
       <c r="K19" t="n">
-        <v>21.16581248444878</v>
+        <v>21.16581248444879</v>
       </c>
       <c r="L19" t="n">
-        <v>84.98223918228314</v>
+        <v>84.98223918228319</v>
       </c>
       <c r="M19" t="n">
-        <v>160.6725790646267</v>
+        <v>160.6725790646268</v>
       </c>
       <c r="N19" t="n">
-        <v>240.8657314101844</v>
+        <v>240.8657314101845</v>
       </c>
       <c r="O19" t="n">
-        <v>301.7073097352051</v>
+        <v>301.7073097352052</v>
       </c>
       <c r="P19" t="n">
-        <v>335.515385097571</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="Q19" t="n">
-        <v>335.515385097571</v>
+        <v>335.5153850975711</v>
       </c>
       <c r="R19" t="n">
-        <v>335.515385097571</v>
+        <v>250.7892777496996</v>
       </c>
       <c r="S19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="T19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="U19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="V19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="W19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="X19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
       <c r="Y19" t="n">
-        <v>335.515385097571</v>
+        <v>166.0631704018281</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5792,10 +5792,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>363.5860700477494</v>
+        <v>53.22485930934801</v>
       </c>
       <c r="C21" t="n">
-        <v>228.4041532406978</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>118.7408560535219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>118.7408560535219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>118.7408560535219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5865,16 +5865,16 @@
         <v>801.1416733434776</v>
       </c>
       <c r="V21" t="n">
-        <v>605.2606775858102</v>
+        <v>605.2606775858103</v>
       </c>
       <c r="W21" t="n">
-        <v>605.2606775858102</v>
+        <v>390.294433331684</v>
       </c>
       <c r="X21" t="n">
-        <v>605.2606775858102</v>
+        <v>221.7140456002265</v>
       </c>
       <c r="Y21" t="n">
-        <v>492.5302945937422</v>
+        <v>53.22485930934801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="C22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="D22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="E22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="F22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="G22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="H22" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>639.7710046689149</v>
+        <v>35.72396353842997</v>
       </c>
       <c r="L22" t="n">
-        <v>705.5747470124691</v>
+        <v>101.5277058819842</v>
       </c>
       <c r="M22" t="n">
-        <v>783.2524025405324</v>
+        <v>179.2053614100477</v>
       </c>
       <c r="N22" t="n">
-        <v>865.43287053181</v>
+        <v>261.3858294013252</v>
       </c>
       <c r="O22" t="n">
-        <v>928.2617645025505</v>
+        <v>324.2147233720657</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>360.0101143801515</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>360.0101143801515</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>360.0101143801515</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>360.0101143801515</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>360.0101143801515</v>
       </c>
       <c r="U22" t="n">
-        <v>838.7415599725092</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="V22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="W22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="X22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
       <c r="Y22" t="n">
-        <v>623.3281842406976</v>
+        <v>143.8758614517329</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>192.611939293113</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>192.611939293113</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>851.9453205694089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>792.1968845642617</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>792.1968845642617</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>577.5834991516335</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>334.1347225075335</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>334.1347225075335</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.5445886092524</v>
+        <v>335.6675987397374</v>
       </c>
       <c r="C24" t="n">
-        <v>126.5445886092524</v>
+        <v>335.6675987397374</v>
       </c>
       <c r="D24" t="n">
-        <v>126.5445886092524</v>
+        <v>226.0043015525615</v>
       </c>
       <c r="E24" t="n">
-        <v>126.5445886092524</v>
+        <v>226.0043015525615</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>118.7408560535219</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,10 +6069,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
         <v>234.810827406191</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>902.1587385375973</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>768.0125064623415</v>
       </c>
       <c r="T24" t="n">
-        <v>801.1416733434776</v>
+        <v>605.097024295183</v>
       </c>
       <c r="U24" t="n">
-        <v>801.1416733434776</v>
+        <v>605.097024295183</v>
       </c>
       <c r="V24" t="n">
-        <v>638.9442437002499</v>
+        <v>409.2160285375157</v>
       </c>
       <c r="W24" t="n">
-        <v>423.9779994461236</v>
+        <v>409.2160285375157</v>
       </c>
       <c r="X24" t="n">
-        <v>423.9779994461236</v>
+        <v>335.6675987397374</v>
       </c>
       <c r="Y24" t="n">
-        <v>255.4888131552451</v>
+        <v>335.6675987397374</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8156922872757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>731.9701653490154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>623.3281842406976</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>639.7710046689149</v>
+        <v>35.72396353842997</v>
       </c>
       <c r="L25" t="n">
-        <v>705.5747470124691</v>
+        <v>101.5277058819842</v>
       </c>
       <c r="M25" t="n">
-        <v>783.2524025405324</v>
+        <v>179.2053614100477</v>
       </c>
       <c r="N25" t="n">
-        <v>865.43287053181</v>
+        <v>261.3858294013252</v>
       </c>
       <c r="O25" t="n">
-        <v>928.2617645025505</v>
+        <v>324.2147233720657</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>360.0101143801515</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>312.2488599333235</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>312.2488599333235</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>312.2488599333235</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>312.2488599333235</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>312.2488599333235</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>312.2488599333235</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>68.80008328922344</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>68.80008328922344</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>530.5390047875037</v>
+        <v>654.9654812477173</v>
       </c>
       <c r="C26" t="n">
-        <v>287.0902281434036</v>
+        <v>654.9654812477173</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>411.5167046036173</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>411.5167046036173</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>411.5167046036173</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>411.5167046036173</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>168.0679279595172</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>898.4142578918174</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>898.4142578918174</v>
       </c>
       <c r="U26" t="n">
-        <v>773.9877814316038</v>
+        <v>898.4142578918174</v>
       </c>
       <c r="V26" t="n">
-        <v>773.9877814316038</v>
+        <v>898.4142578918174</v>
       </c>
       <c r="W26" t="n">
-        <v>530.5390047875037</v>
+        <v>898.4142578918174</v>
       </c>
       <c r="X26" t="n">
-        <v>530.5390047875037</v>
+        <v>898.4142578918174</v>
       </c>
       <c r="Y26" t="n">
-        <v>530.5390047875037</v>
+        <v>898.4142578918174</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>301.3798969013748</v>
+        <v>216.1036812528825</v>
       </c>
       <c r="C27" t="n">
-        <v>190.7419914279189</v>
+        <v>216.1036812528825</v>
       </c>
       <c r="D27" t="n">
-        <v>190.7419914279189</v>
+        <v>216.1036812528825</v>
       </c>
       <c r="E27" t="n">
-        <v>95.31966023013457</v>
+        <v>120.6813500550982</v>
       </c>
       <c r="F27" t="n">
-        <v>95.31966023013457</v>
+        <v>120.6813500550982</v>
       </c>
       <c r="G27" t="n">
-        <v>95.31966023013457</v>
+        <v>45.765648445385</v>
       </c>
       <c r="H27" t="n">
-        <v>45.76564844538507</v>
+        <v>45.765648445385</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>926.7027498711932</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>926.7027498711932</v>
       </c>
       <c r="T27" t="n">
-        <v>825.6856846770734</v>
+        <v>788.3312790376305</v>
       </c>
       <c r="U27" t="n">
-        <v>807.1754906438384</v>
+        <v>623.9227845816907</v>
       </c>
       <c r="V27" t="n">
-        <v>635.8385062197669</v>
+        <v>452.5858001576192</v>
       </c>
       <c r="W27" t="n">
-        <v>445.4162732992364</v>
+        <v>262.1635672370888</v>
       </c>
       <c r="X27" t="n">
-        <v>301.3798969013748</v>
+        <v>262.1635672370888</v>
       </c>
       <c r="Y27" t="n">
-        <v>301.3798969013748</v>
+        <v>262.1635672370888</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6385,49 +6385,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>59.77954904648721</v>
+        <v>59.77954904648728</v>
       </c>
       <c r="L28" t="n">
-        <v>149.6388768980987</v>
+        <v>149.6388768980988</v>
       </c>
       <c r="M28" t="n">
-        <v>251.3721179342194</v>
+        <v>251.3721179342196</v>
       </c>
       <c r="N28" t="n">
-        <v>357.6081714335542</v>
+        <v>357.6081714335545</v>
       </c>
       <c r="O28" t="n">
-        <v>444.492650912352</v>
+        <v>444.4926509123524</v>
       </c>
       <c r="P28" t="n">
-        <v>504.343627428495</v>
+        <v>504.3436274284955</v>
       </c>
       <c r="Q28" t="n">
-        <v>504.343627428495</v>
+        <v>504.3436274284955</v>
       </c>
       <c r="R28" t="n">
-        <v>504.343627428495</v>
+        <v>504.3436274284955</v>
       </c>
       <c r="S28" t="n">
-        <v>504.343627428495</v>
+        <v>504.3436274284955</v>
       </c>
       <c r="T28" t="n">
-        <v>337.9106811065889</v>
+        <v>337.9106811065894</v>
       </c>
       <c r="U28" t="n">
-        <v>337.9106811065889</v>
+        <v>337.9106811065894</v>
       </c>
       <c r="V28" t="n">
-        <v>337.9106811065889</v>
+        <v>337.9106811065894</v>
       </c>
       <c r="W28" t="n">
-        <v>112.3086348772995</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>112.3086348773001</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>483.2365253920055</v>
+        <v>928.071009890917</v>
       </c>
       <c r="C29" t="n">
-        <v>239.7877487479054</v>
+        <v>928.071009890917</v>
       </c>
       <c r="D29" t="n">
-        <v>239.7877487479054</v>
+        <v>928.071009890917</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>684.6222332468169</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>441.1734566027168</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>928.071009890917</v>
       </c>
       <c r="W29" t="n">
-        <v>726.6853020361056</v>
+        <v>928.071009890917</v>
       </c>
       <c r="X29" t="n">
-        <v>726.6853020361056</v>
+        <v>928.071009890917</v>
       </c>
       <c r="Y29" t="n">
-        <v>726.6853020361056</v>
+        <v>928.071009890917</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>194.406578913997</v>
+        <v>229.1264165307492</v>
       </c>
       <c r="C31" t="n">
-        <v>140.8671977816735</v>
+        <v>175.5870353984258</v>
       </c>
       <c r="D31" t="n">
         <v>140.8671977816735</v>
@@ -6646,25 +6646,25 @@
         <v>792.4622108305023</v>
       </c>
       <c r="S31" t="n">
-        <v>791.7487937778858</v>
+        <v>792.4622108305023</v>
       </c>
       <c r="T31" t="n">
-        <v>791.7487937778858</v>
+        <v>677.6109424965084</v>
       </c>
       <c r="U31" t="n">
-        <v>617.934454809337</v>
+        <v>503.7966035279597</v>
       </c>
       <c r="V31" t="n">
-        <v>478.6467683990336</v>
+        <v>503.7966035279597</v>
       </c>
       <c r="W31" t="n">
-        <v>478.6467683990336</v>
+        <v>407.9708286678393</v>
       </c>
       <c r="X31" t="n">
-        <v>366.0540192965998</v>
+        <v>295.3780795654054</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.6582419486532</v>
+        <v>295.3780795654054</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>588.1976059449855</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>588.1976059449855</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>588.1976059449855</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>344.7488293008855</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="F32" t="n">
-        <v>101.3000526567854</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="G32" t="n">
-        <v>101.3000526567854</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>825.5694594195162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>825.5694594195162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>588.1976059449855</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>588.1976059449855</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>588.1976059449855</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706289</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850854</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194176</v>
+        <v>117.5935761194173</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954553</v>
+        <v>73.75292290954529</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201398</v>
+        <v>42.61516673201373</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6819,10 +6819,10 @@
         <v>447.8241420744332</v>
       </c>
       <c r="X33" t="n">
-        <v>355.3694436644839</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951134</v>
+        <v>263.0059466951132</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.2989907516847</v>
+        <v>151.0387226786216</v>
       </c>
       <c r="C34" t="n">
-        <v>131.7596096193613</v>
+        <v>151.0387226786216</v>
       </c>
       <c r="D34" t="n">
-        <v>131.7596096193613</v>
+        <v>151.0387226786216</v>
       </c>
       <c r="E34" t="n">
-        <v>99.24331783255167</v>
+        <v>151.0387226786216</v>
       </c>
       <c r="F34" t="n">
-        <v>67.75017213022478</v>
+        <v>119.5455769762947</v>
       </c>
       <c r="G34" t="n">
-        <v>67.75017213022478</v>
+        <v>65.25452083404102</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="S34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="T34" t="n">
-        <v>677.6109424965084</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="U34" t="n">
-        <v>503.7966035279597</v>
+        <v>682.3353037806826</v>
       </c>
       <c r="V34" t="n">
-        <v>364.5089171176563</v>
+        <v>543.0476173703792</v>
       </c>
       <c r="W34" t="n">
-        <v>364.1434028887748</v>
+        <v>369.027249129002</v>
       </c>
       <c r="X34" t="n">
-        <v>251.5506537863409</v>
+        <v>256.4345000265682</v>
       </c>
       <c r="Y34" t="n">
-        <v>251.5506537863409</v>
+        <v>151.0387226786216</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.1946138615154</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="C35" t="n">
-        <v>109.1946138615154</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="D35" t="n">
-        <v>17.07394108938743</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="E35" t="n">
-        <v>17.07394108938743</v>
+        <v>547.4668426738272</v>
       </c>
       <c r="F35" t="n">
-        <v>17.07394108938743</v>
+        <v>547.4668426738272</v>
       </c>
       <c r="G35" t="n">
-        <v>17.07394108938743</v>
+        <v>331.8867784138848</v>
       </c>
       <c r="H35" t="n">
-        <v>17.07394108938743</v>
+        <v>116.3067141539424</v>
       </c>
       <c r="I35" t="n">
         <v>17.07394108938743</v>
@@ -6938,19 +6938,19 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K35" t="n">
-        <v>17.62165426160527</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L35" t="n">
-        <v>197.6975058462639</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M35" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N35" t="n">
-        <v>614.8420490346726</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O35" t="n">
-        <v>764.0369991773207</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P35" t="n">
         <v>853.6970544693717</v>
@@ -6962,25 +6962,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S35" t="n">
-        <v>755.9348066413424</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T35" t="n">
-        <v>755.9348066413424</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U35" t="n">
-        <v>755.9348066413424</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="V35" t="n">
-        <v>540.3547423814001</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="W35" t="n">
-        <v>324.7746781214578</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="X35" t="n">
-        <v>324.7746781214578</v>
+        <v>713.1816921750888</v>
       </c>
       <c r="Y35" t="n">
-        <v>324.7746781214578</v>
+        <v>713.1816921750888</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.6541897609725</v>
+        <v>138.4521822317093</v>
       </c>
       <c r="C36" t="n">
-        <v>111.1663273638762</v>
+        <v>138.4521822317093</v>
       </c>
       <c r="D36" t="n">
-        <v>75.6010532950456</v>
+        <v>121.4693727080804</v>
       </c>
       <c r="E36" t="n">
         <v>75.6010532950456</v>
@@ -7017,16 +7017,16 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K36" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L36" t="n">
-        <v>17.07394108938743</v>
+        <v>179.0789763803525</v>
       </c>
       <c r="M36" t="n">
-        <v>179.0789763803525</v>
+        <v>390.368997361522</v>
       </c>
       <c r="N36" t="n">
-        <v>390.368997361522</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="O36" t="n">
         <v>601.6590183426915</v>
@@ -7041,25 +7041,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S36" t="n">
-        <v>853.6970544693717</v>
+        <v>793.6488455124612</v>
       </c>
       <c r="T36" t="n">
-        <v>764.8795954205584</v>
+        <v>704.831386463648</v>
       </c>
       <c r="U36" t="n">
-        <v>650.0251127493682</v>
+        <v>589.9769037924577</v>
       </c>
       <c r="V36" t="n">
-        <v>528.2421401100462</v>
+        <v>468.1939311531357</v>
       </c>
       <c r="W36" t="n">
-        <v>387.3739189742652</v>
+        <v>327.3257100173547</v>
       </c>
       <c r="X36" t="n">
-        <v>292.8915543611531</v>
+        <v>232.8433454042426</v>
       </c>
       <c r="Y36" t="n">
-        <v>198.5003911886199</v>
+        <v>138.4521822317093</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.0442095870886</v>
+        <v>258.532711554704</v>
       </c>
       <c r="C37" t="n">
-        <v>117.0442095870886</v>
+        <v>202.9656642192178</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0442095870886</v>
+        <v>166.2181603993027</v>
       </c>
       <c r="E37" t="n">
-        <v>117.0442095870886</v>
+        <v>166.2181603993027</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0442095870886</v>
+        <v>132.6973484938131</v>
       </c>
       <c r="G37" t="n">
-        <v>60.72548724167211</v>
+        <v>76.37862614839662</v>
       </c>
       <c r="H37" t="n">
-        <v>60.72548724167211</v>
+        <v>76.37862614839662</v>
       </c>
       <c r="I37" t="n">
-        <v>17.07394108938743</v>
+        <v>32.72707999611195</v>
       </c>
       <c r="J37" t="n">
-        <v>35.76144256801288</v>
+        <v>51.4145814747374</v>
       </c>
       <c r="K37" t="n">
-        <v>124.8277354545204</v>
+        <v>140.4808743612449</v>
       </c>
       <c r="L37" t="n">
-        <v>263.2549502563649</v>
+        <v>278.9080891630894</v>
       </c>
       <c r="M37" t="n">
-        <v>413.5560782427185</v>
+        <v>429.209217149443</v>
       </c>
       <c r="N37" t="n">
-        <v>568.3600186922863</v>
+        <v>584.0131575990108</v>
       </c>
       <c r="O37" t="n">
-        <v>703.812385121317</v>
+        <v>719.4655240280416</v>
       </c>
       <c r="P37" t="n">
-        <v>812.231248587693</v>
+        <v>827.8843874944176</v>
       </c>
       <c r="Q37" t="n">
-        <v>838.043915562647</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R37" t="n">
-        <v>838.043915562647</v>
+        <v>787.9819563474797</v>
       </c>
       <c r="S37" t="n">
-        <v>727.1285363539629</v>
+        <v>787.9819563474797</v>
       </c>
       <c r="T37" t="n">
-        <v>610.2496018168063</v>
+        <v>671.1030218103231</v>
       </c>
       <c r="U37" t="n">
-        <v>434.4075966450947</v>
+        <v>671.1030218103231</v>
       </c>
       <c r="V37" t="n">
-        <v>293.0922440316285</v>
+        <v>529.7876691968569</v>
       </c>
       <c r="W37" t="n">
-        <v>117.0442095870886</v>
+        <v>529.7876691968569</v>
       </c>
       <c r="X37" t="n">
-        <v>117.0442095870886</v>
+        <v>415.1672538912602</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0442095870886</v>
+        <v>307.7438103401508</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>439.8476527841686</v>
+        <v>274.1159379447371</v>
       </c>
       <c r="C38" t="n">
-        <v>439.8476527841686</v>
+        <v>274.1159379447371</v>
       </c>
       <c r="D38" t="n">
         <v>228.3010710295666</v>
       </c>
       <c r="E38" t="n">
-        <v>228.3010710295666</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="F38" t="n">
-        <v>228.3010710295666</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="G38" t="n">
         <v>16.75448927496448</v>
@@ -7175,19 +7175,19 @@
         <v>16.75448927496448</v>
       </c>
       <c r="K38" t="n">
-        <v>16.75448927496448</v>
+        <v>119.7694951858868</v>
       </c>
       <c r="L38" t="n">
-        <v>196.830340859623</v>
+        <v>299.8453467705454</v>
       </c>
       <c r="M38" t="n">
-        <v>404.1671456373085</v>
+        <v>507.1821515482309</v>
       </c>
       <c r="N38" t="n">
-        <v>610.0216678445479</v>
+        <v>598.8694583135251</v>
       </c>
       <c r="O38" t="n">
-        <v>759.2166179871959</v>
+        <v>748.0644084561732</v>
       </c>
       <c r="P38" t="n">
         <v>837.7244637482241</v>
@@ -7205,19 +7205,19 @@
         <v>837.7244637482241</v>
       </c>
       <c r="U38" t="n">
-        <v>837.7244637482241</v>
+        <v>697.2091014539412</v>
       </c>
       <c r="V38" t="n">
-        <v>651.3942345387707</v>
+        <v>697.2091014539412</v>
       </c>
       <c r="W38" t="n">
-        <v>651.3942345387707</v>
+        <v>485.6625196993392</v>
       </c>
       <c r="X38" t="n">
-        <v>651.3942345387707</v>
+        <v>485.6625196993392</v>
       </c>
       <c r="Y38" t="n">
-        <v>651.3942345387707</v>
+        <v>274.1159379447371</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7257,16 @@
         <v>16.75448927496448</v>
       </c>
       <c r="L39" t="n">
-        <v>16.75448927496448</v>
+        <v>146.3194909018383</v>
       </c>
       <c r="M39" t="n">
-        <v>171.0128180661731</v>
+        <v>353.6562956795238</v>
       </c>
       <c r="N39" t="n">
-        <v>378.3496228438585</v>
+        <v>560.9931004572093</v>
       </c>
       <c r="O39" t="n">
-        <v>585.686427621544</v>
+        <v>768.3299052348948</v>
       </c>
       <c r="P39" t="n">
         <v>768.3299052348948</v>
@@ -7278,25 +7278,25 @@
         <v>837.7244637482241</v>
       </c>
       <c r="S39" t="n">
-        <v>837.7244637482241</v>
+        <v>777.6762547913137</v>
       </c>
       <c r="T39" t="n">
-        <v>748.9070046994109</v>
+        <v>688.8587957425004</v>
       </c>
       <c r="U39" t="n">
-        <v>634.0525220282207</v>
+        <v>574.0043130713102</v>
       </c>
       <c r="V39" t="n">
-        <v>512.2695493888987</v>
+        <v>547.5408375726208</v>
       </c>
       <c r="W39" t="n">
-        <v>461.5188178644872</v>
+        <v>406.6726164368398</v>
       </c>
       <c r="X39" t="n">
-        <v>367.0364532513751</v>
+        <v>312.1902518237277</v>
       </c>
       <c r="Y39" t="n">
-        <v>272.6452900788418</v>
+        <v>217.7990886511944</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.6402589558672</v>
+        <v>140.3863065059128</v>
       </c>
       <c r="C40" t="n">
-        <v>73.07321162038096</v>
+        <v>84.81925917042659</v>
       </c>
       <c r="D40" t="n">
-        <v>73.07321162038096</v>
+        <v>84.81925917042659</v>
       </c>
       <c r="E40" t="n">
-        <v>73.07321162038096</v>
+        <v>50.27530118045416</v>
       </c>
       <c r="F40" t="n">
-        <v>73.07321162038096</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="G40" t="n">
         <v>16.75448927496448</v>
@@ -7354,28 +7354,28 @@
         <v>837.7244637482241</v>
       </c>
       <c r="R40" t="n">
-        <v>837.7244637482241</v>
+        <v>772.0093656263322</v>
       </c>
       <c r="S40" t="n">
-        <v>724.8142073841071</v>
+        <v>772.0093656263322</v>
       </c>
       <c r="T40" t="n">
-        <v>724.8142073841071</v>
+        <v>655.1304310891755</v>
       </c>
       <c r="U40" t="n">
-        <v>724.8142073841071</v>
+        <v>479.288425917464</v>
       </c>
       <c r="V40" t="n">
-        <v>583.4988547706409</v>
+        <v>337.9730733039978</v>
       </c>
       <c r="W40" t="n">
-        <v>407.450820326101</v>
+        <v>161.9250388594579</v>
       </c>
       <c r="X40" t="n">
-        <v>292.8304050205043</v>
+        <v>140.3863065059128</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.4069614693949</v>
+        <v>140.3863065059128</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>311.096431820608</v>
+      </c>
+      <c r="C41" t="n">
         <v>171.2935047044899</v>
       </c>
-      <c r="C41" t="n">
-        <v>12.57083540826131</v>
-      </c>
       <c r="D41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="E41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="F41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="G41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="H41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="I41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="J41" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="K41" t="n">
-        <v>12.57083540826131</v>
+        <v>115.5858413191837</v>
       </c>
       <c r="L41" t="n">
-        <v>168.134923585495</v>
+        <v>271.1499294964173</v>
       </c>
       <c r="M41" t="n">
-        <v>234.1226768011327</v>
+        <v>389.6867649783661</v>
       </c>
       <c r="N41" t="n">
-        <v>389.6867649783663</v>
+        <v>389.6867649783661</v>
       </c>
       <c r="O41" t="n">
-        <v>538.8817151210144</v>
+        <v>538.8817151210142</v>
       </c>
       <c r="P41" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="Q41" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="R41" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="S41" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="T41" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="U41" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="V41" t="n">
-        <v>488.7388432969473</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="W41" t="n">
-        <v>488.7388432969473</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="X41" t="n">
-        <v>330.0161740007186</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.0161740007186</v>
+        <v>469.8191011168366</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117.2916363646201</v>
+        <v>100.9476704660246</v>
       </c>
       <c r="C42" t="n">
-        <v>65.22546660228205</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="D42" t="n">
-        <v>65.22546660228205</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="E42" t="n">
-        <v>65.22546660228205</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="F42" t="n">
-        <v>65.22546660228205</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="G42" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="H42" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="I42" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="J42" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="K42" t="n">
         <v>137.9283954660987</v>
       </c>
       <c r="L42" t="n">
-        <v>293.4924836433324</v>
+        <v>293.4924836433323</v>
       </c>
       <c r="M42" t="n">
-        <v>449.0565718205661</v>
+        <v>449.056571820566</v>
       </c>
       <c r="N42" t="n">
-        <v>449.0565718205661</v>
+        <v>604.6206599977996</v>
       </c>
       <c r="O42" t="n">
-        <v>449.0565718205661</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="P42" t="n">
-        <v>559.147211899736</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="Q42" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="R42" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="S42" t="n">
-        <v>541.2006200870979</v>
+        <v>568.6936478267356</v>
       </c>
       <c r="T42" t="n">
-        <v>425.0902196692277</v>
+        <v>568.6936478267356</v>
       </c>
       <c r="U42" t="n">
-        <v>425.0902196692277</v>
+        <v>426.5462237864883</v>
       </c>
       <c r="V42" t="n">
-        <v>276.0143056608488</v>
+        <v>426.5462237864883</v>
       </c>
       <c r="W42" t="n">
-        <v>117.2916363646201</v>
+        <v>426.5462237864883</v>
       </c>
       <c r="X42" t="n">
-        <v>117.2916363646201</v>
+        <v>304.7709178043192</v>
       </c>
       <c r="Y42" t="n">
-        <v>117.2916363646201</v>
+        <v>183.086813262729</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.18249912273471</v>
+        <v>286.1591579853535</v>
       </c>
       <c r="C43" t="n">
-        <v>96.18249912273471</v>
+        <v>286.1591579853535</v>
       </c>
       <c r="D43" t="n">
-        <v>96.18249912273471</v>
+        <v>222.1187127963815</v>
       </c>
       <c r="E43" t="n">
-        <v>96.18249912273471</v>
+        <v>222.1187127963815</v>
       </c>
       <c r="F43" t="n">
-        <v>96.18249912273471</v>
+        <v>161.3049595218348</v>
       </c>
       <c r="G43" t="n">
-        <v>12.57083540826131</v>
+        <v>161.3049595218348</v>
       </c>
       <c r="H43" t="n">
-        <v>12.57083540826131</v>
+        <v>83.51532292960297</v>
       </c>
       <c r="I43" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="J43" t="n">
-        <v>12.57083540826131</v>
+        <v>12.5708354082613</v>
       </c>
       <c r="K43" t="n">
-        <v>74.88731645895606</v>
+        <v>74.88731645895621</v>
       </c>
       <c r="L43" t="n">
-        <v>186.5647194249878</v>
+        <v>186.5647194249879</v>
       </c>
       <c r="M43" t="n">
-        <v>310.1160355755289</v>
+        <v>310.1160355755288</v>
       </c>
       <c r="N43" t="n">
-        <v>438.1701641892839</v>
+        <v>438.1701641892838</v>
       </c>
       <c r="O43" t="n">
-        <v>546.872718782502</v>
+        <v>546.8727187825018</v>
       </c>
       <c r="P43" t="n">
-        <v>628.5417704130654</v>
+        <v>628.5417704130651</v>
       </c>
       <c r="Q43" t="n">
-        <v>627.5855977155256</v>
+        <v>627.5855977155254</v>
       </c>
       <c r="R43" t="n">
-        <v>534.5775582245767</v>
+        <v>627.5855977155254</v>
       </c>
       <c r="S43" t="n">
-        <v>394.3743604914028</v>
+        <v>579.5982122017485</v>
       </c>
       <c r="T43" t="n">
-        <v>250.2024845851892</v>
+        <v>579.5982122017485</v>
       </c>
       <c r="U43" t="n">
-        <v>191.7547697296107</v>
+        <v>420.87554290552</v>
       </c>
       <c r="V43" t="n">
-        <v>191.7547697296107</v>
+        <v>420.87554290552</v>
       </c>
       <c r="W43" t="n">
-        <v>191.7547697296107</v>
+        <v>420.87554290552</v>
       </c>
       <c r="X43" t="n">
-        <v>191.7547697296107</v>
+        <v>420.87554290552</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.7547697296107</v>
+        <v>286.1591579853535</v>
       </c>
     </row>
     <row r="44">
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L11" t="n">
         <v>263.3564402303034</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P11" t="n">
-        <v>257.7082725202194</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,10 +8775,10 @@
         <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>251.6730239855836</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>266.0735001150103</v>
       </c>
       <c r="M14" t="n">
-        <v>261.9294061678758</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>260.9962365371939</v>
       </c>
       <c r="O14" t="n">
-        <v>260.4052965667098</v>
+        <v>261.6813843622897</v>
       </c>
       <c r="P14" t="n">
-        <v>262.8161686958725</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>169.424611914962</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>170.1375527204772</v>
+        <v>168.8614649248973</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>173.7172068626213</v>
       </c>
       <c r="N15" t="n">
-        <v>161.6487972283564</v>
+        <v>162.9248850239363</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>165.5575803549333</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.5649470266245</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>303.9686973193733</v>
       </c>
       <c r="L17" t="n">
         <v>319.64526124438</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2250795016655</v>
+        <v>310.8360352077507</v>
       </c>
       <c r="N17" t="n">
-        <v>309.9028655770688</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>313.9770576960795</v>
       </c>
       <c r="P17" t="n">
-        <v>315.1118420296623</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>221.7202852487518</v>
       </c>
       <c r="L18" t="n">
-        <v>148.9486681105245</v>
+        <v>222.433226054267</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>226.0128801964111</v>
       </c>
       <c r="N18" t="n">
-        <v>215.220558357726</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4750907188372</v>
+        <v>152.9905327750948</v>
       </c>
       <c r="P18" t="n">
-        <v>217.853253688723</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10206,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,7 +10434,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.6430966734834</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>367.8635777812772</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>175.5720315305082</v>
       </c>
       <c r="M36" t="n">
-        <v>305.775483710872</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N36" t="n">
         <v>344.7659757006762</v>
       </c>
       <c r="O36" t="n">
-        <v>356.0205080617874</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,13 +10832,13 @@
         <v>439.7773491643288</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>322.0265047736558</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>310.5338500593384</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>269.4281187969185</v>
       </c>
       <c r="M39" t="n">
-        <v>297.9505276505118</v>
+        <v>351.5651498590744</v>
       </c>
       <c r="N39" t="n">
         <v>340.7728280203893</v>
@@ -10917,7 +10917,7 @@
         <v>352.0273603815004</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>392.9018575732536</v>
       </c>
       <c r="M41" t="n">
-        <v>297.0005294046845</v>
+        <v>350.0804104817665</v>
       </c>
       <c r="N41" t="n">
-        <v>386.5485061998572</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11148,16 +11148,16 @@
         <v>299.2694765252846</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>288.4771546865996</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>166.7589822376419</v>
       </c>
       <c r="P42" t="n">
-        <v>245.1770741609665</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23267,13 +23267,13 @@
         <v>379.2089293371553</v>
       </c>
       <c r="F11" t="n">
-        <v>376.5645797462888</v>
+        <v>389.0811593768245</v>
       </c>
       <c r="G11" t="n">
         <v>384.9912715197124</v>
       </c>
       <c r="H11" t="n">
-        <v>321.6799157508802</v>
+        <v>309.1633361203445</v>
       </c>
       <c r="I11" t="n">
         <v>180.1644235749833</v>
@@ -23346,10 +23346,10 @@
         <v>154.9236397202944</v>
       </c>
       <c r="F12" t="n">
-        <v>142.3477716582774</v>
+        <v>114.7577463979612</v>
       </c>
       <c r="G12" t="n">
-        <v>107.032051167788</v>
+        <v>110.3207821788177</v>
       </c>
       <c r="H12" t="n">
         <v>81.92397824107381</v>
@@ -23400,7 +23400,7 @@
         <v>248.9735424258131</v>
       </c>
       <c r="X12" t="n">
-        <v>178.7502502190845</v>
+        <v>203.051544468371</v>
       </c>
       <c r="Y12" t="n">
         <v>202.9612550421978</v>
@@ -23425,22 +23425,22 @@
         <v>143.7125219114627</v>
       </c>
       <c r="F13" t="n">
-        <v>118.3983130385383</v>
+        <v>142.6996072878247</v>
       </c>
       <c r="G13" t="n">
-        <v>165.2695386233522</v>
+        <v>160.5162954648421</v>
       </c>
       <c r="H13" t="n">
-        <v>159.5057317723331</v>
+        <v>131.9157065120169</v>
       </c>
       <c r="I13" t="n">
-        <v>152.7290341921518</v>
+        <v>125.1390089318356</v>
       </c>
       <c r="J13" t="n">
-        <v>90.63773938156626</v>
+        <v>63.04771412125012</v>
       </c>
       <c r="K13" t="n">
-        <v>19.54805109077634</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.85057725627173</v>
+        <v>83.44060251658787</v>
       </c>
       <c r="R13" t="n">
-        <v>146.9819253817468</v>
+        <v>174.571950642063</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7051320415496</v>
+        <v>221.2951573018657</v>
       </c>
       <c r="T13" t="n">
         <v>225.224148693175</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>345.8628298552771</v>
+        <v>318.044371129194</v>
       </c>
       <c r="C14" t="n">
         <v>328.4018799628041</v>
@@ -23507,7 +23507,7 @@
         <v>370.005033933508</v>
       </c>
       <c r="G14" t="n">
-        <v>346.8485527663286</v>
+        <v>378.4317257069316</v>
       </c>
       <c r="H14" t="n">
         <v>271.0206173669607</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.9981061329463</v>
+        <v>81.41493319234323</v>
       </c>
       <c r="S14" t="n">
         <v>172.1490577780419</v>
@@ -23555,7 +23555,7 @@
         <v>290.8812466619315</v>
       </c>
       <c r="W14" t="n">
-        <v>284.5514981831265</v>
+        <v>312.3699569092096</v>
       </c>
       <c r="X14" t="n">
         <v>332.8600888702656</v>
@@ -23574,25 +23574,25 @@
         <v>129.6621718416639</v>
       </c>
       <c r="C15" t="n">
-        <v>135.8374871801123</v>
+        <v>104.2543142395093</v>
       </c>
       <c r="D15" t="n">
-        <v>110.5740537564353</v>
+        <v>82.7555950303522</v>
       </c>
       <c r="E15" t="n">
-        <v>120.7740686471975</v>
+        <v>89.19089570659449</v>
       </c>
       <c r="F15" t="n">
-        <v>108.1982005851805</v>
+        <v>76.61502764457742</v>
       </c>
       <c r="G15" t="n">
         <v>100.4725053550072</v>
       </c>
       <c r="H15" t="n">
-        <v>75.36443242829304</v>
+        <v>75.36443242829301</v>
       </c>
       <c r="I15" t="n">
-        <v>52.52562104321166</v>
+        <v>52.52562104321164</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.28682234443971</v>
+        <v>63.28682234443969</v>
       </c>
       <c r="S15" t="n">
-        <v>103.2289863550314</v>
+        <v>134.8121592956344</v>
       </c>
       <c r="T15" t="n">
-        <v>135.4752581605351</v>
+        <v>163.2937168866182</v>
       </c>
       <c r="U15" t="n">
-        <v>157.4871973321684</v>
+        <v>189.0703702727714</v>
       </c>
       <c r="V15" t="n">
-        <v>164.3464024006188</v>
+        <v>195.9295753412218</v>
       </c>
       <c r="W15" t="n">
         <v>214.8239713527162</v>
       </c>
       <c r="X15" t="n">
-        <v>168.9019733952741</v>
+        <v>168.901973395274</v>
       </c>
       <c r="Y15" t="n">
-        <v>168.811683969101</v>
+        <v>168.8116839691009</v>
       </c>
     </row>
     <row r="16">
@@ -23656,25 +23656,25 @@
         <v>130.3758092904244</v>
       </c>
       <c r="D16" t="n">
-        <v>111.7444612100089</v>
+        <v>83.9260024839258</v>
       </c>
       <c r="E16" t="n">
-        <v>109.5629508383658</v>
+        <v>109.5629508383657</v>
       </c>
       <c r="F16" t="n">
         <v>108.5500362147278</v>
       </c>
       <c r="G16" t="n">
-        <v>131.1199675502554</v>
+        <v>131.1199675502553</v>
       </c>
       <c r="H16" t="n">
-        <v>125.3561606992362</v>
+        <v>93.77298775863312</v>
       </c>
       <c r="I16" t="n">
-        <v>118.5794631190549</v>
+        <v>86.99629017845183</v>
       </c>
       <c r="J16" t="n">
-        <v>56.48816830846935</v>
+        <v>24.90499536786631</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.47257271740784</v>
+        <v>49.29103144349094</v>
       </c>
       <c r="R16" t="n">
-        <v>108.839206628363</v>
+        <v>140.4223795689661</v>
       </c>
       <c r="S16" t="n">
-        <v>155.5624132881658</v>
+        <v>187.1455862287688</v>
       </c>
       <c r="T16" t="n">
-        <v>159.491404679475</v>
+        <v>191.0745776200781</v>
       </c>
       <c r="U16" t="n">
         <v>249.4480175482875</v>
@@ -23741,16 +23741,16 @@
         <v>345.0593582640583</v>
       </c>
       <c r="F17" t="n">
-        <v>296.1245461350229</v>
+        <v>370.005033933508</v>
       </c>
       <c r="G17" t="n">
-        <v>294.5528794325389</v>
+        <v>378.4317257069316</v>
       </c>
       <c r="H17" t="n">
-        <v>218.724944033171</v>
+        <v>228.7233025090786</v>
       </c>
       <c r="I17" t="n">
-        <v>89.72603148780973</v>
+        <v>89.72603148780969</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.9981061329463</v>
+        <v>29.11925985855346</v>
       </c>
       <c r="S17" t="n">
-        <v>172.1490577780419</v>
+        <v>88.27021150364912</v>
       </c>
       <c r="T17" t="n">
         <v>186.2248377559279</v>
@@ -23811,7 +23811,7 @@
         <v>129.6621718416639</v>
       </c>
       <c r="C18" t="n">
-        <v>51.95864090571956</v>
+        <v>135.8374871801123</v>
       </c>
       <c r="D18" t="n">
         <v>110.5740537564353</v>
@@ -23820,16 +23820,16 @@
         <v>120.7740686471975</v>
       </c>
       <c r="F18" t="n">
-        <v>108.1982005851805</v>
+        <v>108.1982005851804</v>
       </c>
       <c r="G18" t="n">
-        <v>16.59365908061447</v>
+        <v>16.59365908061442</v>
       </c>
       <c r="H18" t="n">
-        <v>75.36443242829304</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>52.52562104321166</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.28682234443971</v>
+        <v>63.28682234443969</v>
       </c>
       <c r="S18" t="n">
-        <v>60.9316714971493</v>
+        <v>134.8121592956344</v>
       </c>
       <c r="T18" t="n">
-        <v>163.2937168866182</v>
+        <v>79.41487061222539</v>
       </c>
       <c r="U18" t="n">
         <v>189.0703702727714</v>
       </c>
       <c r="V18" t="n">
-        <v>112.0507290668291</v>
+        <v>195.9295753412218</v>
       </c>
       <c r="W18" t="n">
-        <v>214.8239713527162</v>
+        <v>184.9546907513429</v>
       </c>
       <c r="X18" t="n">
-        <v>168.9019733952741</v>
+        <v>168.901973395274</v>
       </c>
       <c r="Y18" t="n">
-        <v>168.811683969101</v>
+        <v>168.8116839691009</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.08212209934112</v>
+        <v>142.9609683737339</v>
       </c>
       <c r="C19" t="n">
         <v>130.3758092904244</v>
@@ -23896,22 +23896,22 @@
         <v>111.7444612100089</v>
       </c>
       <c r="E19" t="n">
-        <v>25.68410456397301</v>
+        <v>109.5629508383657</v>
       </c>
       <c r="F19" t="n">
-        <v>24.67118994033508</v>
+        <v>108.5500362147278</v>
       </c>
       <c r="G19" t="n">
-        <v>131.1199675502554</v>
+        <v>131.1199675502553</v>
       </c>
       <c r="H19" t="n">
-        <v>125.3561606992362</v>
+        <v>107.9638412092203</v>
       </c>
       <c r="I19" t="n">
-        <v>44.69897532056973</v>
+        <v>34.70061684466206</v>
       </c>
       <c r="J19" t="n">
-        <v>56.48816830846935</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.29103144349097</v>
+        <v>49.29103144349094</v>
       </c>
       <c r="R19" t="n">
-        <v>140.4223795689661</v>
+        <v>56.54353329457327</v>
       </c>
       <c r="S19" t="n">
-        <v>187.1455862287688</v>
+        <v>103.266739954376</v>
       </c>
       <c r="T19" t="n">
         <v>191.0745776200781</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.8411514364869</v>
+        <v>343.8554403141459</v>
       </c>
       <c r="C20" t="n">
-        <v>85.38020154401391</v>
+        <v>326.3944904216729</v>
       </c>
       <c r="D20" t="n">
-        <v>315.8046402713484</v>
+        <v>103.5192546279063</v>
       </c>
       <c r="E20" t="n">
-        <v>343.0519687229272</v>
+        <v>102.0376798452681</v>
       </c>
       <c r="F20" t="n">
-        <v>367.9976443923769</v>
+        <v>126.9833555147177</v>
       </c>
       <c r="G20" t="n">
-        <v>376.4243361658005</v>
+        <v>135.4100472881414</v>
       </c>
       <c r="H20" t="n">
-        <v>300.5964007664326</v>
+        <v>300.5964007664325</v>
       </c>
       <c r="I20" t="n">
         <v>171.5974882210713</v>
@@ -24020,7 +24020,7 @@
         <v>170.1416682369107</v>
       </c>
       <c r="T20" t="n">
-        <v>184.2174482147968</v>
+        <v>184.2174482147967</v>
       </c>
       <c r="U20" t="n">
         <v>212.4672515585019</v>
@@ -24032,10 +24032,10 @@
         <v>310.3625673680784</v>
       </c>
       <c r="X20" t="n">
-        <v>118.5673136856925</v>
+        <v>330.8526993291344</v>
       </c>
       <c r="Y20" t="n">
-        <v>106.34524842906</v>
+        <v>347.3595373067189</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6547823005327</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>100.2258186018372</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>108.5666642153041</v>
       </c>
       <c r="E21" t="n">
         <v>118.7666791060663</v>
@@ -24060,13 +24060,13 @@
         <v>106.1908110440493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>98.46511581387603</v>
       </c>
       <c r="H21" t="n">
-        <v>73.35704288716187</v>
+        <v>73.35704288716184</v>
       </c>
       <c r="I21" t="n">
-        <v>50.51823150208048</v>
+        <v>50.51823150208046</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>61.27943280330854</v>
+        <v>61.27943280330852</v>
       </c>
       <c r="S21" t="n">
         <v>132.8047697545032</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>212.816581811585</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>166.8945838541429</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>55.20121526582241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,10 +24127,10 @@
         <v>140.9535788326027</v>
       </c>
       <c r="C22" t="n">
-        <v>128.3684197492933</v>
+        <v>128.3684197492932</v>
       </c>
       <c r="D22" t="n">
-        <v>109.7370716688778</v>
+        <v>109.7370716688777</v>
       </c>
       <c r="E22" t="n">
         <v>107.5555612972346</v>
@@ -24142,13 +24142,13 @@
         <v>129.1125780091241</v>
       </c>
       <c r="H22" t="n">
-        <v>123.348771158105</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>116.5720735779237</v>
       </c>
       <c r="J22" t="n">
-        <v>54.48077876733818</v>
+        <v>54.48077876733816</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,28 +24169,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.28364190235979</v>
+        <v>47.28364190235977</v>
       </c>
       <c r="R22" t="n">
         <v>138.4149900278349</v>
       </c>
       <c r="S22" t="n">
-        <v>185.1381966876377</v>
+        <v>185.1381966876376</v>
       </c>
       <c r="T22" t="n">
         <v>189.0671880789469</v>
       </c>
       <c r="U22" t="n">
-        <v>123.3781884244106</v>
+        <v>33.46771760802184</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>213.2592419744934</v>
       </c>
       <c r="W22" t="n">
         <v>247.6445969872564</v>
       </c>
       <c r="X22" t="n">
-        <v>186.8312540397026</v>
+        <v>186.8312540397025</v>
       </c>
       <c r="Y22" t="n">
         <v>179.7062520027602</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.8411514364869</v>
+        <v>343.8554403141459</v>
       </c>
       <c r="C23" t="n">
-        <v>326.394490421673</v>
+        <v>326.3944904216729</v>
       </c>
       <c r="D23" t="n">
-        <v>315.8046402713484</v>
+        <v>315.8046402713483</v>
       </c>
       <c r="E23" t="n">
-        <v>343.0519687229272</v>
+        <v>343.0519687229271</v>
       </c>
       <c r="F23" t="n">
-        <v>126.9833555147178</v>
+        <v>367.9976443923768</v>
       </c>
       <c r="G23" t="n">
-        <v>376.4243361658005</v>
+        <v>236.3167807835242</v>
       </c>
       <c r="H23" t="n">
-        <v>300.5964007664326</v>
+        <v>300.5964007664325</v>
       </c>
       <c r="I23" t="n">
-        <v>171.5974882210713</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>110.9907165918151</v>
       </c>
       <c r="S23" t="n">
-        <v>68.84699918528381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>184.2174482147968</v>
+        <v>184.2174482147967</v>
       </c>
       <c r="U23" t="n">
-        <v>212.4672515585019</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>288.8738571208003</v>
+        <v>47.85956824314121</v>
       </c>
       <c r="W23" t="n">
         <v>310.3625673680784</v>
       </c>
       <c r="X23" t="n">
-        <v>89.8384104514754</v>
+        <v>330.8526993291344</v>
       </c>
       <c r="Y23" t="n">
-        <v>347.359537306719</v>
+        <v>347.3595373067189</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>127.6547823005327</v>
       </c>
       <c r="C24" t="n">
-        <v>133.8300976389812</v>
+        <v>133.8300976389811</v>
       </c>
       <c r="D24" t="n">
-        <v>108.5666642153042</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>118.7666791060663</v>
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>98.46511581387604</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>73.35704288716187</v>
+        <v>73.35704288716184</v>
       </c>
       <c r="I24" t="n">
-        <v>50.51823150208048</v>
+        <v>50.51823150208046</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>61.27943280330854</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.8047697545032</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>187.0629807316402</v>
       </c>
       <c r="V24" t="n">
-        <v>33.34673045329529</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>212.816581811585</v>
       </c>
       <c r="X24" t="n">
-        <v>166.8945838541429</v>
+        <v>94.08163835434237</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>166.8042944279698</v>
       </c>
     </row>
     <row r="25">
@@ -24364,13 +24364,13 @@
         <v>140.9535788326027</v>
       </c>
       <c r="C25" t="n">
-        <v>8.339371158166387</v>
+        <v>128.3684197492932</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>109.7370716688777</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>107.5555612972346</v>
       </c>
       <c r="F25" t="n">
         <v>106.5426466735966</v>
@@ -24385,7 +24385,7 @@
         <v>116.5720735779237</v>
       </c>
       <c r="J25" t="n">
-        <v>54.48077876733818</v>
+        <v>54.48077876733816</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24406,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.28364190235979</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>138.4149900278349</v>
       </c>
       <c r="S25" t="n">
-        <v>185.1381966876377</v>
+        <v>185.1381966876376</v>
       </c>
       <c r="T25" t="n">
         <v>189.0671880789469</v>
@@ -24424,13 +24424,13 @@
         <v>213.2592419744934</v>
       </c>
       <c r="W25" t="n">
-        <v>247.6445969872564</v>
+        <v>6.630308109597337</v>
       </c>
       <c r="X25" t="n">
-        <v>186.8312540397026</v>
+        <v>186.8312540397025</v>
       </c>
       <c r="Y25" t="n">
-        <v>179.7062520027602</v>
+        <v>130.6825012255396</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>319.5568690938861</v>
+        <v>78.54258021622701</v>
       </c>
       <c r="C26" t="n">
-        <v>61.08163032375404</v>
+        <v>302.095919201413</v>
       </c>
       <c r="D26" t="n">
-        <v>267.3893637458885</v>
+        <v>50.49178017342939</v>
       </c>
       <c r="E26" t="n">
         <v>318.7533975026673</v>
       </c>
       <c r="F26" t="n">
-        <v>102.6847842944579</v>
+        <v>343.6990731721169</v>
       </c>
       <c r="G26" t="n">
-        <v>352.1257649455406</v>
+        <v>352.1257649455405</v>
       </c>
       <c r="H26" t="n">
-        <v>276.2978295461727</v>
+        <v>35.28354066851358</v>
       </c>
       <c r="I26" t="n">
-        <v>147.2989170008115</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>86.69214537155523</v>
+        <v>86.69214537155516</v>
       </c>
       <c r="S26" t="n">
-        <v>145.8430970166509</v>
+        <v>80.85662837402022</v>
       </c>
       <c r="T26" t="n">
-        <v>159.9188769945369</v>
+        <v>159.9188769945368</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>188.168680338242</v>
       </c>
       <c r="V26" t="n">
-        <v>264.5752859005405</v>
+        <v>264.5752859005404</v>
       </c>
       <c r="W26" t="n">
-        <v>45.0497072701595</v>
+        <v>286.0639961478185</v>
       </c>
       <c r="X26" t="n">
-        <v>306.5541281088746</v>
+        <v>306.5541281088745</v>
       </c>
       <c r="Y26" t="n">
         <v>323.0609660864591</v>
@@ -24519,25 +24519,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103.3562110802729</v>
+        <v>57.75692395590856</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>109.5315264187212</v>
       </c>
       <c r="D27" t="n">
-        <v>84.2680929950443</v>
+        <v>84.26809299504423</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>81.89223982378942</v>
+        <v>81.89223982378935</v>
       </c>
       <c r="G27" t="n">
-        <v>74.16654459361618</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>49.05847166690194</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.98086158304868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>108.5061985342434</v>
+        <v>108.5061985342433</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>144.4393174184778</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,10 +24585,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>142.5960126338829</v>
       </c>
       <c r="Y27" t="n">
-        <v>142.5057232077099</v>
+        <v>142.5057232077098</v>
       </c>
     </row>
     <row r="28">
@@ -24601,28 +24601,28 @@
         <v>116.6550076123428</v>
       </c>
       <c r="C28" t="n">
-        <v>104.0698485290334</v>
+        <v>104.0698485290333</v>
       </c>
       <c r="D28" t="n">
-        <v>85.4385004486179</v>
+        <v>85.43850044861783</v>
       </c>
       <c r="E28" t="n">
-        <v>83.25699007697472</v>
+        <v>83.25699007697465</v>
       </c>
       <c r="F28" t="n">
-        <v>82.24407545333679</v>
+        <v>82.24407545333672</v>
       </c>
       <c r="G28" t="n">
-        <v>104.8140067888643</v>
+        <v>104.8140067888642</v>
       </c>
       <c r="H28" t="n">
-        <v>99.05019993784512</v>
+        <v>6.95298308842861</v>
       </c>
       <c r="I28" t="n">
-        <v>92.27350235766383</v>
+        <v>92.27350235766376</v>
       </c>
       <c r="J28" t="n">
-        <v>30.18220754707832</v>
+        <v>30.18220754707825</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24643,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.98507068209993</v>
+        <v>22.98507068209986</v>
       </c>
       <c r="R28" t="n">
         <v>114.116418807575</v>
       </c>
       <c r="S28" t="n">
-        <v>160.8396254673778</v>
+        <v>160.8396254673777</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>70.43546597002681</v>
+        <v>162.5326828194426</v>
       </c>
       <c r="Y28" t="n">
         <v>155.4076807825003</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.47671900819387</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
-        <v>10.01576911572084</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D29" t="n">
         <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>49.38599671331838</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F29" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G29" t="n">
-        <v>301.0599037375074</v>
+        <v>108.6184817180678</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>96.23305579277827</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>94.7772358086177</v>
@@ -24740,7 +24740,7 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
         <v>255.4882669008414</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>32.19112886894153</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.0674813772543</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589633</v>
+        <v>77.41264744744414</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.4910078858529</v>
+        <v>27.47671900819387</v>
       </c>
       <c r="C32" t="n">
         <v>251.0300579933799</v>
@@ -24923,16 +24923,16 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>26.67324741697507</v>
+        <v>39.61983011167246</v>
       </c>
       <c r="F32" t="n">
-        <v>51.61892308642473</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>144.0332478870326</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>96.23305579277827</v>
@@ -24971,13 +24971,13 @@
         <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V32" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
         <v>255.4882669008414</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
         <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.47069478322193</v>
       </c>
       <c r="I34" t="n">
         <v>41.20764114963065</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>171.9183054723706</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.07413380964121</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
         <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>151.2481313397798</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>269.6949258357653</v>
+        <v>105.6372248295164</v>
       </c>
       <c r="F35" t="n">
         <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>89.64302966129569</v>
       </c>
       <c r="H35" t="n">
-        <v>227.2393578792707</v>
+        <v>13.81509426192778</v>
       </c>
       <c r="I35" t="n">
-        <v>98.24044533390945</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
         <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.09255061629554</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>23.58126086357365</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
         <v>257.4956564419726</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>28.31007097869394</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>18.39663989974968</v>
       </c>
       <c r="E36" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.44772686734136</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.59653594544083</v>
+        <v>18.87754814784853</v>
       </c>
       <c r="C37" t="n">
-        <v>55.01137686213137</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.974928383878478</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>61.06728148992809</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
         <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>33.01648144713047</v>
+        <v>197.0908791381677</v>
       </c>
       <c r="E38" t="n">
-        <v>269.6949258357653</v>
+        <v>60.2638098987093</v>
       </c>
       <c r="F38" t="n">
         <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>93.63617734158257</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
         <v>227.2393578792707</v>
@@ -25445,19 +25445,19 @@
         <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>31.04988731627952</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W38" t="n">
-        <v>237.0055244809166</v>
+        <v>27.57440854386053</v>
       </c>
       <c r="X38" t="n">
         <v>257.4956564419726</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.0024944195571</v>
+        <v>64.5713784825011</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>59.44772686734136</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,10 +25527,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>94.36630216922633</v>
       </c>
       <c r="W39" t="n">
-        <v>89.21631471525583</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.39750045704839</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
         <v>49.99172827094311</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>174.0835851199944</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>92.15086612253113</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140.3829667790841</v>
+        <v>140.3829667790843</v>
       </c>
       <c r="C41" t="n">
-        <v>122.9220168866111</v>
+        <v>141.6525616449206</v>
       </c>
       <c r="D41" t="n">
-        <v>269.4676093395528</v>
+        <v>112.3321667362867</v>
       </c>
       <c r="E41" t="n">
-        <v>296.7149377911317</v>
+        <v>296.7149377911318</v>
       </c>
       <c r="F41" t="n">
-        <v>321.6606134605813</v>
+        <v>321.6606134605814</v>
       </c>
       <c r="G41" t="n">
-        <v>330.0873052340049</v>
+        <v>330.087305234005</v>
       </c>
       <c r="H41" t="n">
         <v>254.2593698346371</v>
       </c>
       <c r="I41" t="n">
-        <v>125.2604572892758</v>
+        <v>125.2604572892759</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>64.65368566001959</v>
+        <v>64.65368566001965</v>
       </c>
       <c r="S41" t="n">
         <v>123.8046373051153</v>
@@ -25682,19 +25682,19 @@
         <v>137.8804172830013</v>
       </c>
       <c r="U41" t="n">
-        <v>166.1302206267064</v>
+        <v>166.1302206267065</v>
       </c>
       <c r="V41" t="n">
-        <v>104.1319283440479</v>
+        <v>242.5368261890049</v>
       </c>
       <c r="W41" t="n">
-        <v>264.0255364362829</v>
+        <v>264.025536436283</v>
       </c>
       <c r="X41" t="n">
-        <v>127.3802257940726</v>
+        <v>284.515668397339</v>
       </c>
       <c r="Y41" t="n">
-        <v>301.0225063749235</v>
+        <v>143.8870637716572</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.31775136873725</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35.94755864247095</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>62.22963328350866</v>
+        <v>62.22963328350872</v>
       </c>
       <c r="E42" t="n">
-        <v>72.42964817427085</v>
+        <v>72.42964817427091</v>
       </c>
       <c r="F42" t="n">
-        <v>59.85378011225379</v>
+        <v>59.85378011225384</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>52.1280848820806</v>
       </c>
       <c r="H42" t="n">
-        <v>27.02001195536637</v>
+        <v>27.02001195536643</v>
       </c>
       <c r="I42" t="n">
-        <v>4.181200570284986</v>
+        <v>4.181200570285043</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.94240187151304</v>
+        <v>14.9424018715131</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>27.21809746224157</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>114.9492964136916</v>
       </c>
       <c r="U42" t="n">
-        <v>140.7259497998447</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>147.5851548682952</v>
       </c>
       <c r="W42" t="n">
-        <v>9.344108276523173</v>
+        <v>166.4795508797896</v>
       </c>
       <c r="X42" t="n">
-        <v>120.5575529223474</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.4672634961743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>94.61654790080726</v>
       </c>
       <c r="C43" t="n">
-        <v>82.03138881749774</v>
+        <v>82.0313888174978</v>
       </c>
       <c r="D43" t="n">
-        <v>63.40004073708226</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>61.21853036543908</v>
+        <v>61.21853036543914</v>
       </c>
       <c r="F43" t="n">
-        <v>60.20561574180115</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.77554707732872</v>
       </c>
       <c r="H43" t="n">
-        <v>77.01174022630948</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.23504264612819</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>8.143747835542683</v>
+        <v>8.14374783554274</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>92.07795909603945</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>91.29365409720313</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>142.7301571471515</v>
       </c>
       <c r="U43" t="n">
-        <v>143.240359368338</v>
+        <v>43.96815447209457</v>
       </c>
       <c r="V43" t="n">
-        <v>166.9222110426979</v>
+        <v>166.922211042698</v>
       </c>
       <c r="W43" t="n">
-        <v>201.3075660554609</v>
+        <v>201.307566055461</v>
       </c>
       <c r="X43" t="n">
         <v>140.4942231079071</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.3692210709647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>384004.426925508</v>
+        <v>384004.4269255079</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>476220.3871961143</v>
+        <v>476220.3871961145</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>476220.3871961144</v>
+        <v>476220.3871961143</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528373.9715463733</v>
+        <v>528373.9715463734</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>616959.8059048986</v>
+        <v>616959.8059048987</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>737348.7048453348</v>
+      </c>
+      <c r="C2" t="n">
         <v>737348.7048453344</v>
       </c>
-      <c r="C2" t="n">
-        <v>737348.7048453345</v>
-      </c>
       <c r="D2" t="n">
-        <v>737348.7048453345</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="E2" t="n">
         <v>213957.6154131134</v>
       </c>
       <c r="F2" t="n">
-        <v>290869.2799914998</v>
+        <v>290869.2799914997</v>
       </c>
       <c r="G2" t="n">
         <v>317536.7850397934</v>
       </c>
       <c r="H2" t="n">
-        <v>389056.0931627448</v>
+        <v>389056.0931627447</v>
       </c>
       <c r="I2" t="n">
         <v>389056.0931627448</v>
       </c>
       <c r="J2" t="n">
-        <v>444277.5354159607</v>
+        <v>444277.5354159606</v>
       </c>
       <c r="K2" t="n">
-        <v>558747.6184631748</v>
+        <v>558747.6184631743</v>
       </c>
       <c r="L2" t="n">
-        <v>558747.6184631743</v>
+        <v>558747.6184631744</v>
       </c>
       <c r="M2" t="n">
         <v>542660.6781551056</v>
       </c>
       <c r="N2" t="n">
-        <v>540959.1506496668</v>
+        <v>540959.1506496664</v>
       </c>
       <c r="O2" t="n">
-        <v>458620.8313594527</v>
+        <v>458620.8313594526</v>
       </c>
       <c r="P2" t="n">
         <v>193513.3299566035</v>
@@ -26375,22 +26375,22 @@
         <v>10414.92715025988</v>
       </c>
       <c r="F3" t="n">
-        <v>28463.79749071941</v>
+        <v>28463.79749071943</v>
       </c>
       <c r="G3" t="n">
-        <v>14333.45962569176</v>
+        <v>14333.45962569177</v>
       </c>
       <c r="H3" t="n">
-        <v>44002.46826624963</v>
+        <v>44002.46826624961</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>21616.0095642931</v>
+        <v>21616.00956429314</v>
       </c>
       <c r="K3" t="n">
-        <v>68172.34582490407</v>
+        <v>68172.34582490403</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>79957.96603465045</v>
+        <v>79141.580763864</v>
       </c>
       <c r="F4" t="n">
-        <v>128250.234636074</v>
+        <v>127426.3521029774</v>
       </c>
       <c r="G4" t="n">
-        <v>139312.2694724817</v>
+        <v>138397.3309835624</v>
       </c>
       <c r="H4" t="n">
-        <v>167261.333375581</v>
+        <v>166078.0336139395</v>
       </c>
       <c r="I4" t="n">
-        <v>167261.333375581</v>
+        <v>166078.0336139395</v>
       </c>
       <c r="J4" t="n">
-        <v>202326.9700408513</v>
+        <v>201143.6702792099</v>
       </c>
       <c r="K4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="L4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="M4" t="n">
-        <v>267881.9277521388</v>
+        <v>266745.7471774269</v>
       </c>
       <c r="N4" t="n">
-        <v>267245.2985403736</v>
+        <v>266115.9375995769</v>
       </c>
       <c r="O4" t="n">
-        <v>220758.1658185705</v>
+        <v>219718.1172138146</v>
       </c>
       <c r="P4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>1906.262336986891</v>
       </c>
       <c r="F5" t="n">
-        <v>5019.966006492517</v>
+        <v>5019.966006492519</v>
       </c>
       <c r="G5" t="n">
-        <v>8199.542945186931</v>
+        <v>8199.542945186937</v>
       </c>
       <c r="H5" t="n">
         <v>17922.13708679888</v>
@@ -26506,7 +26506,7 @@
         <v>22168.93341049103</v>
       </c>
       <c r="O5" t="n">
-        <v>16717.81108672092</v>
+        <v>16717.81108672091</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288188.549119712</v>
+        <v>288948.7062323759</v>
       </c>
       <c r="C6" t="n">
-        <v>288188.549119712</v>
+        <v>288948.7062323755</v>
       </c>
       <c r="D6" t="n">
-        <v>288188.5491197121</v>
+        <v>288948.7062323758</v>
       </c>
       <c r="E6" t="n">
-        <v>121678.4598912162</v>
+        <v>122494.8451620026</v>
       </c>
       <c r="F6" t="n">
-        <v>129135.2818582138</v>
+        <v>129959.1643913104</v>
       </c>
       <c r="G6" t="n">
-        <v>155691.5129964329</v>
+        <v>156606.4514853523</v>
       </c>
       <c r="H6" t="n">
-        <v>159870.1544341153</v>
+        <v>161053.4541957566</v>
       </c>
       <c r="I6" t="n">
-        <v>203872.6227003649</v>
+        <v>205055.9224620064</v>
       </c>
       <c r="J6" t="n">
-        <v>200369.6621401014</v>
+        <v>201552.9619017426</v>
       </c>
       <c r="K6" t="n">
-        <v>191285.4068259521</v>
+        <v>192468.7065875931</v>
       </c>
       <c r="L6" t="n">
-        <v>259457.7526508557</v>
+        <v>260641.0524124973</v>
       </c>
       <c r="M6" t="n">
-        <v>252367.0336135143</v>
+        <v>253503.2141882261</v>
       </c>
       <c r="N6" t="n">
-        <v>251544.9186988022</v>
+        <v>252674.2796395985</v>
       </c>
       <c r="O6" t="n">
-        <v>221144.8544541613</v>
+        <v>222184.9030589171</v>
       </c>
       <c r="P6" t="n">
-        <v>122873.3592484997</v>
+        <v>123633.5163611634</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G2" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H2" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I2" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J2" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>31.58317294060302</v>
       </c>
       <c r="G4" t="n">
-        <v>83.87884627439274</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26917,7 +26917,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>34.14957107309691</v>
+        <v>34.14957107309693</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.02001195536637</v>
+        <v>27.02001195536642</v>
       </c>
       <c r="K2" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>3.993147680286881</v>
       </c>
       <c r="G4" t="n">
-        <v>52.29567333378972</v>
+        <v>52.29567333378976</v>
       </c>
       <c r="H4" t="n">
         <v>157.1354426032663</v>
@@ -27154,7 +27154,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="K2" t="n">
-        <v>34.14957107309691</v>
+        <v>34.14957107309693</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.02001195536637</v>
+        <v>27.02001195536642</v>
       </c>
       <c r="P2" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
     </row>
     <row r="3">
@@ -27270,7 +27270,7 @@
         <v>3.993147680286881</v>
       </c>
       <c r="O4" t="n">
-        <v>52.29567333378972</v>
+        <v>52.29567333378976</v>
       </c>
       <c r="P4" t="n">
         <v>157.1354426032663</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="C14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="D14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="E14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="F14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="I14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="S14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="T14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="U14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="V14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="W14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="X14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="C15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="D15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="E15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="F15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="I15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="S15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="T15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="V15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="W15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="X15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="C16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="D16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="E16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="F16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="I16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="J16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="K16" t="n">
-        <v>27.99144905686628</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
-        <v>3.993147680286881</v>
+        <v>2.717059884706959</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>6.998045026563346</v>
       </c>
       <c r="P16" t="n">
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="R16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="S16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="T16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="U16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="V16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="W16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="X16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="C17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="D17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="E17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="F17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="I17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="S17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="T17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="U17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="V17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="W17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="X17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="C18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="D18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="E18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="F18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="I18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="S18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="T18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="U18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="V18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="W18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="X18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="C19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="D19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="E19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="F19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="G19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="H19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="I19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="J19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="K19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="L19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="M19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="N19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="O19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="P19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="R19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="S19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="T19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="U19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="V19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="W19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="X19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.87101180820342</v>
+        <v>36.87101180820344</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="C20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="D20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="E20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="F20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="G20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="H20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="S20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="T20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="U20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="V20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="W20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="X20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="C21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="D21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="E21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="F21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="G21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="H21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="S21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="T21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="U21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="V21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="W21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="X21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="C22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="D22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="E22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="F22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="G22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="H22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="K22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="L22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="M22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="N22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="O22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="P22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="R22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="S22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="T22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="U22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="V22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="W22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="X22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="C23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="D23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="E23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="F23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="G23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="H23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="S23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="T23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="U23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="V23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="W23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="X23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="C24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="D24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="E24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="F24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="G24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="H24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="S24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="T24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="U24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="V24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="W24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="X24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Y24" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="C25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="D25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="E25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="F25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="G25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="H25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="I25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="J25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="K25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="L25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="M25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="N25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="O25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="P25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="R25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="S25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="T25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="U25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="V25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="W25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="X25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.8784013493346</v>
+        <v>38.87840134933462</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="C26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="D26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="E26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="F26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="G26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="H26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="I26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="S26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="T26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="U26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="V26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="W26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="X26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="Y26" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="C27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="D27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="E27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="F27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="G27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="H27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="I27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="S27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="T27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="U27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="V27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="W27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="X27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="Y27" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="C28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="D28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="E28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="F28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="G28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="H28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="I28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="J28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="K28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="L28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="M28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="N28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="O28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="P28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="R28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="S28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="T28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="U28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="V28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="W28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="X28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.17697256959445</v>
+        <v>63.17697256959453</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="C41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="D41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="E41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="F41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="G41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="H41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="I41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="S41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="T41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="U41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="V41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="W41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="X41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="Y41" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="C42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="D42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="E42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="F42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="G42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="H42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="I42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="S42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="T42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="U42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="V42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="W42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="X42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="C43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="D43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="E43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="F43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="G43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="H43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="I43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="J43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="K43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="L43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="M43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="N43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="O43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="P43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="R43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="S43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="T43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="U43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="V43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="W43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="X43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.21543228113009</v>
+        <v>85.21543228113003</v>
       </c>
     </row>
     <row r="44">
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L11" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,11 +35495,11 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="N12" t="n">
         <v>26.47527676494983</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>30.3070851450231</v>
       </c>
       <c r="M14" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>31.58317294060302</v>
       </c>
       <c r="O14" t="n">
-        <v>30.3070851450231</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="P14" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>30.3070851450231</v>
+      </c>
+      <c r="M15" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>31.58317294060302</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>30.3070851450231</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.58317294060302</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>5.721957230983423</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.58317294060302</v>
+        <v>30.3070851450231</v>
       </c>
       <c r="M16" t="n">
         <v>31.58317294060302</v>
@@ -35817,7 +35817,7 @@
         <v>31.58317294060302</v>
       </c>
       <c r="O16" t="n">
-        <v>24.58512791403967</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="L17" t="n">
-        <v>83.87884627439274</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="M17" t="n">
-        <v>83.87884627439274</v>
+        <v>80.48980198047794</v>
       </c>
       <c r="N17" t="n">
-        <v>80.48980198047791</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="P17" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="L18" t="n">
-        <v>10.39428833065034</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>83.87884627439279</v>
       </c>
       <c r="N18" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>83.87884627439274</v>
+        <v>10.3942883306504</v>
       </c>
       <c r="P18" t="n">
-        <v>83.87884627439274</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.60151998232057</v>
+        <v>14.60151998232059</v>
       </c>
       <c r="L19" t="n">
-        <v>64.46103706851956</v>
+        <v>64.46103706851957</v>
       </c>
       <c r="M19" t="n">
-        <v>76.45488877004401</v>
+        <v>76.45488877004402</v>
       </c>
       <c r="N19" t="n">
-        <v>81.00318418743201</v>
+        <v>81.00318418743203</v>
       </c>
       <c r="O19" t="n">
-        <v>61.45613972224309</v>
+        <v>61.45613972224312</v>
       </c>
       <c r="P19" t="n">
-        <v>34.14957107309691</v>
+        <v>34.14957107309693</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,13 +36212,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.60890952345174</v>
+        <v>16.60890952345176</v>
       </c>
       <c r="L22" t="n">
-        <v>66.46842660965073</v>
+        <v>66.46842660965075</v>
       </c>
       <c r="M22" t="n">
-        <v>78.46227831117518</v>
+        <v>78.4622783111752</v>
       </c>
       <c r="N22" t="n">
-        <v>83.01057372856319</v>
+        <v>83.0105737285632</v>
       </c>
       <c r="O22" t="n">
-        <v>63.46352926337427</v>
+        <v>63.46352926337429</v>
       </c>
       <c r="P22" t="n">
-        <v>36.15696061422808</v>
+        <v>36.1569606142281</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.60890952345174</v>
+        <v>16.60890952345176</v>
       </c>
       <c r="L25" t="n">
-        <v>66.46842660965073</v>
+        <v>66.46842660965075</v>
       </c>
       <c r="M25" t="n">
-        <v>78.46227831117518</v>
+        <v>78.4622783111752</v>
       </c>
       <c r="N25" t="n">
-        <v>83.01057372856319</v>
+        <v>83.0105737285632</v>
       </c>
       <c r="O25" t="n">
-        <v>63.46352926337427</v>
+        <v>63.46352926337429</v>
       </c>
       <c r="P25" t="n">
-        <v>36.15696061422808</v>
+        <v>36.1569606142281</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.9074807437116</v>
+        <v>40.90748074371167</v>
       </c>
       <c r="L28" t="n">
-        <v>90.76699782991059</v>
+        <v>90.76699782991066</v>
       </c>
       <c r="M28" t="n">
-        <v>102.760849531435</v>
+        <v>102.7608495314351</v>
       </c>
       <c r="N28" t="n">
-        <v>107.309144948823</v>
+        <v>107.3091449488231</v>
       </c>
       <c r="O28" t="n">
-        <v>87.76210048363413</v>
+        <v>87.7621004836342</v>
       </c>
       <c r="P28" t="n">
-        <v>60.45553183448794</v>
+        <v>60.45553183448801</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36926,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5532456285028686</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
@@ -37318,10 +37318,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>137.7653663595904</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>37.01765175063407</v>
       </c>
       <c r="M36" t="n">
-        <v>163.6414497888537</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N36" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="O36" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37552,13 +37552,13 @@
         <v>209.431115937056</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>92.61344117706489</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>79.30085430406888</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>130.8737390170443</v>
       </c>
       <c r="M39" t="n">
-        <v>155.8164937284935</v>
+        <v>209.431115937056</v>
       </c>
       <c r="N39" t="n">
         <v>209.431115937056</v>
@@ -37637,7 +37637,7 @@
         <v>209.431115937056</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>157.1354426032663</v>
       </c>
       <c r="M41" t="n">
-        <v>66.65429617741178</v>
+        <v>119.7341772544938</v>
       </c>
       <c r="N41" t="n">
-        <v>157.1354426032663</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37868,16 +37868,16 @@
         <v>157.1354426032663</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>157.1354426032663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>24.16273779319748</v>
       </c>
       <c r="P42" t="n">
-        <v>111.2026667466363</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.94594045524724</v>
+        <v>62.94594045524718</v>
       </c>
       <c r="L43" t="n">
         <v>112.8054575414462</v>
       </c>
       <c r="M43" t="n">
-        <v>124.7993092429707</v>
+        <v>124.7993092429706</v>
       </c>
       <c r="N43" t="n">
-        <v>129.3476046603587</v>
+        <v>129.3476046603586</v>
       </c>
       <c r="O43" t="n">
-        <v>109.8005601951698</v>
+        <v>109.8005601951697</v>
       </c>
       <c r="P43" t="n">
-        <v>82.49399154602358</v>
+        <v>82.49399154602352</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
